--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2900440.097720012</v>
+        <v>-2902921.017545471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834739</v>
+        <v>10721426.73834738</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>62.21735501674004</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851353</v>
@@ -1382,13 +1382,13 @@
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579945</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>82.26761520104932</v>
       </c>
       <c r="T11" t="n">
-        <v>78.5094842600807</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302866</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>88.44202534652231</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292128</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890424</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184864</v>
@@ -1588,7 +1588,7 @@
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>43.49784634987527</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
@@ -1607,25 +1607,25 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>117.91445613034</v>
+        <v>72.00373357584579</v>
       </c>
       <c r="H14" t="n">
         <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,7 +1768,7 @@
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>88.44202534652152</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594427</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>86.93272886202078</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292087</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443153</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
         <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367015</v>
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>239.1132486668484</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>253.7856194870043</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3363911711818</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948558</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>220.6411254041905</v>
       </c>
       <c r="G20" t="n">
-        <v>299.8101416070805</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249332</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5302192482727</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0368694643283</v>
+        <v>77.43656365929034</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,7 +2293,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249332</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>208.0533602654133</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948558</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124555</v>
@@ -3235,25 +3235,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010731</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846412</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092317</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>164.0711673124577</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>196.6598613601176</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010731</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846412</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F40" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092317</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621573</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>230.7340562419016</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>231.0452163728803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.0675382420299</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010731</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846412</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092317</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621573</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>143.0438109257886</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>163.106871388384</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>89.27723295060959</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>172.8237348705162</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4198,10 +4198,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1542.660985043702</v>
+        <v>1435.868953613593</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.660985043702</v>
+        <v>1094.098503932905</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.587353696675</v>
+        <v>1094.098503932905</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9911683581547</v>
+        <v>735.5023185943841</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1973308282709</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="G11" t="n">
-        <v>81.3169479329911</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3169479329911</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.391247391209</v>
@@ -5045,46 +5045,46 @@
         <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3163.204711042375</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>2936.866301575934</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V11" t="n">
-        <v>2936.866301575934</v>
+        <v>2533.51231048965</v>
       </c>
       <c r="W11" t="n">
-        <v>2611.289713565544</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X11" t="n">
-        <v>2265.016022564188</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y11" t="n">
-        <v>1902.0687578481</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228008</v>
@@ -5124,10 +5124,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6005218029463</v>
+        <v>418.3126375609374</v>
       </c>
       <c r="C13" t="n">
-        <v>636.6005218029463</v>
+        <v>276.5685218927542</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029463</v>
+        <v>276.5685218927542</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802769</v>
+        <v>155.8474955700848</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420902</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705059</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.942556361062</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188182</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
         <v>1776.98242222985</v>
@@ -5230,19 +5230,19 @@
         <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376954</v>
       </c>
       <c r="V13" t="n">
         <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.454914895562</v>
+        <v>967.1670306535534</v>
       </c>
       <c r="X13" t="n">
-        <v>984.6574312572686</v>
+        <v>766.3695470152597</v>
       </c>
       <c r="Y13" t="n">
-        <v>791.0569193734623</v>
+        <v>572.7690351314534</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1502.254258673503</v>
+        <v>1139.306993957417</v>
       </c>
       <c r="C14" t="n">
-        <v>1160.483808992815</v>
+        <v>1139.306993957417</v>
       </c>
       <c r="D14" t="n">
-        <v>829.4101776457885</v>
+        <v>808.2333626103899</v>
       </c>
       <c r="E14" t="n">
-        <v>470.8139923072679</v>
+        <v>808.2333626103899</v>
       </c>
       <c r="F14" t="n">
-        <v>470.8139923072679</v>
+        <v>424.4395250805061</v>
       </c>
       <c r="G14" t="n">
         <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299116</v>
+        <v>81.31694793299113</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573495</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489648</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479258</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.662031477901</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y14" t="n">
-        <v>1861.662031477901</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.2234371755699</v>
+        <v>418.3126375609367</v>
       </c>
       <c r="C16" t="n">
-        <v>538.4793215073867</v>
+        <v>276.5685218927536</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5547493547747</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>294.8337230321052</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>294.8337230321052</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>154.3229536665478</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003743</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L16" t="n">
         <v>712.1345656402571</v>
@@ -5467,19 +5467,19 @@
         <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1718.795353991586</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.302933045423</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.077830268186</v>
+        <v>967.1670306535528</v>
       </c>
       <c r="X16" t="n">
-        <v>1028.280346629892</v>
+        <v>766.3695470152592</v>
       </c>
       <c r="Y16" t="n">
-        <v>834.6798347460858</v>
+        <v>572.7690351314527</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1775.325244677774</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1481.00442794516</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="D17" t="n">
-        <v>1197.380429546206</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>886.2338771557592</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628255</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5522,43 +5522,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344061</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.62080593608</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417713</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2979.732029417713</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2701.605074355396</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2402.781016302114</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y17" t="n">
-        <v>2087.283384534099</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031474</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872289</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671184</v>
+        <v>474.827296267119</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625797</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356254</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>822.2794225454049</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>676.1285436096717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1817.728115595284</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1523.407298862669</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>1239.783300463716</v>
+        <v>940.9592424104339</v>
       </c>
       <c r="E20" t="n">
-        <v>928.6367480732688</v>
+        <v>629.8126900199866</v>
       </c>
       <c r="F20" t="n">
-        <v>592.2925434914582</v>
+        <v>406.94286637939</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5765,37 +5765,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417714</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.31084228194</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219624</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2445.183887219624</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2129.686255451609</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.151773123555</v>
+        <v>569.1217789872289</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034452</v>
+        <v>474.827296267119</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989065</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243104</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F22" t="n">
-        <v>316.862710534197</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604116</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1849.075796917492</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952116</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729439</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356254</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817308</v>
+        <v>822.2794225454049</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459977</v>
+        <v>676.1285436096717</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
         <v>73.3777548224824</v>
@@ -5990,25 +5990,25 @@
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9802179168072</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1368.014431165216</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1901.54633583714</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2448.325152895922</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2951.297623775259</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3346.071990132436</v>
+        <v>3343.748752776753</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3592.035114532435</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6020,7 +6020,7 @@
         <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
         <v>3066.592761796891</v>
@@ -6054,22 +6054,22 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
         <v>772.017383606112</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775274</v>
+        <v>575.9874173775279</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574175</v>
+        <v>481.6929346574179</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>406.2179954528791</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881693</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634006</v>
+        <v>96.06173179634013</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119736</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1377.311169453178</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259235</v>
+        <v>982.4929116259243</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357032</v>
+        <v>829.1450609357039</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999701</v>
+        <v>682.9941819999707</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644151</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702933</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.58687458227</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939448</v>
+        <v>3750.042416521975</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641924</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833289</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960313</v>
@@ -6391,43 +6391,43 @@
         <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,25 +6461,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>792.1780824632704</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1243.212295711679</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1776.744200383603</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2323.523017442385</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321722</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277656</v>
@@ -6491,22 +6491,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960323</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973153</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697162</v>
@@ -6686,7 +6686,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.90370154678</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2735.569460712893</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O32" t="n">
-        <v>3238.54193159223</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P32" t="n">
-        <v>3633.316297949408</v>
+        <v>3728.510094301078</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805549</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
@@ -6856,10 +6856,10 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6886,22 +6886,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,64 +6920,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909353</v>
+        <v>500.930830390936</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368719</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983797</v>
+        <v>379.2208771983801</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898301</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.10716072584</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.689990688879</v>
+        <v>934.0185561150365</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647051</v>
+        <v>706.0290052170192</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.579295221175</v>
+        <v>583.9078606473324</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,7 +7269,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170918</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630284</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,10 +7351,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
         <v>1735.608663915319</v>
@@ -7363,19 +7363,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610488</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046014</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673485</v>
+        <v>835.347121541193</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431747</v>
+        <v>706.0290052170191</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734881</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,55 +7394,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170918</v>
+        <v>599.6022649647791</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630284</v>
+        <v>529.3375166107156</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245361</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058688</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552288</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W43" t="n">
-        <v>877.9803925153276</v>
+        <v>934.0185561150362</v>
       </c>
       <c r="X43" t="n">
-        <v>649.9908416173103</v>
+        <v>804.7004397908622</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734881</v>
+        <v>682.5792952211755</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,7 +7631,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464974</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307332</v>
@@ -7640,58 +7640,58 @@
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389142</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>571.9707875848507</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>520.5255827463584</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>471.2839237378087</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>324.3939762398984</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>156.6911396146174</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058688</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891709</v>
+        <v>934.0185561150361</v>
       </c>
       <c r="X46" t="n">
-        <v>847.333710764997</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953104</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430626</v>
+        <v>157.2353108430633</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729001</v>
+        <v>184.403943372901</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389595</v>
+        <v>191.4948909389607</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333058</v>
+        <v>181.0856325333071</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830231</v>
+        <v>179.3553748830245</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383981</v>
+        <v>182.8301554383994</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586577</v>
+        <v>190.8908035586588</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266118</v>
+        <v>192.0103836266126</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875972</v>
+        <v>112.6562001875975</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372528</v>
+        <v>113.6031223372535</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672268</v>
+        <v>105.9629718672276</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253586</v>
+        <v>104.1013981253596</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677581</v>
+        <v>92.30246558677683</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359729</v>
+        <v>106.8829608359738</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798318</v>
+        <v>105.3113487798326</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615454</v>
+        <v>120.8212784615459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564654</v>
+        <v>116.1755252564659</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085224</v>
+        <v>119.1996074085229</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140774</v>
+        <v>108.4284123140779</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530921</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662702</v>
+        <v>122.5080856662706</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-4.345622083815055e-14</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.66901280727163</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.01571720695229</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>274.835176366544</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.02214132148694</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>21.13839585591558</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>274.835176366543</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.18875040233635</v>
+        <v>21.7498204251477</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>293.5963400596141</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.48833929241296</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>30.05887608928246</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271162</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>216.1050053995893</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>266.0871229359871</v>
+        <v>311.9978454904812</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.25330108456437</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>30.90213946517349</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271162</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,16 +23732,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.26435989844015</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>79.19514304898809</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.339637131802</v>
       </c>
       <c r="G20" t="n">
-        <v>37.2163008406539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1270045.436896317</v>
+        <v>1270045.436896316</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20481.90846792596</v>
+        <v>20481.90846792595</v>
       </c>
       <c r="C2" t="n">
         <v>20481.90846792596</v>
       </c>
       <c r="D2" t="n">
-        <v>20482.46674514866</v>
+        <v>20482.46674514865</v>
       </c>
       <c r="E2" t="n">
         <v>18238.50002262438</v>
       </c>
       <c r="F2" t="n">
-        <v>18238.50002262436</v>
+        <v>18238.50002262437</v>
       </c>
       <c r="G2" t="n">
-        <v>19863.27053116338</v>
+        <v>19863.27053116339</v>
       </c>
       <c r="H2" t="n">
-        <v>19863.27053116338</v>
+        <v>19863.27053116339</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.04424660708</v>
       </c>
-      <c r="L2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660707</v>
-      </c>
       <c r="N2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552397</v>
+        <v>59764.5536755224</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163631</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487399</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983379</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475034</v>
+        <v>426120.683347504</v>
       </c>
       <c r="E4" t="n">
+        <v>39414.21797863746</v>
+      </c>
+      <c r="F4" t="n">
         <v>39414.21797863748</v>
       </c>
-      <c r="F4" t="n">
-        <v>39414.21797863749</v>
-      </c>
       <c r="G4" t="n">
-        <v>76442.37834007968</v>
+        <v>76442.37834007964</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007971</v>
+        <v>76442.37834007962</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602856</v>
+        <v>89331.33560602844</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936337</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.5572993634</v>
+        <v>86909.5572993633</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936338</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316949</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="O4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316942</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186639</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482646</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521486</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-460170.3118044669</v>
+        <v>-460174.725382335</v>
       </c>
       <c r="C6" t="n">
-        <v>-460170.3118044669</v>
+        <v>-460174.725382335</v>
       </c>
       <c r="D6" t="n">
-        <v>-500551.6757097451</v>
+        <v>-500556.0334598899</v>
       </c>
       <c r="E6" t="n">
-        <v>-1186984.180484471</v>
+        <v>-1187212.934906871</v>
       </c>
       <c r="F6" t="n">
-        <v>-97745.20832083943</v>
+        <v>-97973.9627432378</v>
       </c>
       <c r="G6" t="n">
-        <v>-174677.8602290052</v>
+        <v>-174744.1376005495</v>
       </c>
       <c r="H6" t="n">
-        <v>-137097.7509341312</v>
+        <v>-137164.0283056755</v>
       </c>
       <c r="I6" t="n">
-        <v>-177363.2874910974</v>
+        <v>-177363.2874910971</v>
       </c>
       <c r="J6" t="n">
-        <v>-181170.8877493593</v>
+        <v>-181170.8877493594</v>
       </c>
       <c r="K6" t="n">
-        <v>-155761.4547275624</v>
+        <v>-155761.4547275623</v>
       </c>
       <c r="L6" t="n">
         <v>-193341.5640224364</v>
       </c>
       <c r="M6" t="n">
-        <v>-355734.6080055365</v>
+        <v>-355734.6080055364</v>
       </c>
       <c r="N6" t="n">
         <v>-153566.5080128121</v>
@@ -26698,34 +26698,34 @@
         <v>26.92014658712647</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379078</v>
+        <v>69.78465283790597</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593299</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>50.7095836095125</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379078</v>
+        <v>69.78465283790597</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873761</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104725</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780171</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036571</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672096</v>
+        <v>84.2286184667211</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987499</v>
+        <v>90.83829126987524</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519066</v>
+        <v>84.46220888519089</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990042</v>
+        <v>7.649035050990427</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317031</v>
+        <v>75.62456067317058</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.49558901075554</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075704</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G22" t="n">
-        <v>11.49558901075557</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075699</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T25" t="n">
-        <v>11.49558901075591</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075704</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859358</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859352</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810505</v>
+        <v>55.47778196371149</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V37" t="n">
-        <v>55.47778196371041</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -30435,19 +30435,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W40" t="n">
-        <v>55.47778196371067</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.72521440565333</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.47778196371084</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>55.47778196371119</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.72521440565302</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413377</v>
+        <v>0.2805413179413303</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366725</v>
+        <v>2.87309377236665</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993343</v>
+        <v>10.81556915993315</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362363</v>
+        <v>23.810593683623</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208046</v>
+        <v>35.68590767207952</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102768</v>
+        <v>44.27152403102652</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396694</v>
+        <v>49.26060069396565</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356778</v>
+        <v>50.05768871356646</v>
       </c>
       <c r="O8" t="n">
-        <v>47.2680559832886</v>
+        <v>47.26805598328735</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661181</v>
+        <v>40.34219219661075</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783765</v>
+        <v>30.29530624783686</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313257</v>
+        <v>17.6225535631321</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588239</v>
+        <v>6.392835282588071</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288206</v>
+        <v>1.228069619288174</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530701</v>
+        <v>0.02244330543530642</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796508</v>
+        <v>0.1501028381796468</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840311</v>
+        <v>1.449677410840273</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694116</v>
+        <v>5.16801438469398</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906955</v>
+        <v>14.18142647906918</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710615</v>
+        <v>24.23831663710551</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264741</v>
+        <v>32.59140791264656</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665975</v>
+        <v>38.03263579665875</v>
       </c>
       <c r="N9" t="n">
-        <v>39.0392464965575</v>
+        <v>39.03924649655647</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847155</v>
+        <v>35.71328360847061</v>
       </c>
       <c r="P9" t="n">
-        <v>28.6630586344984</v>
+        <v>28.66305863449765</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447612</v>
+        <v>19.16049562447562</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768143</v>
+        <v>9.319542882767898</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608862</v>
+        <v>2.788094384608788</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890307</v>
+        <v>0.6050197731890147</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345448</v>
+        <v>0.009875186722345188</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486862</v>
+        <v>0.1258411772486829</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811047</v>
+        <v>1.118842466811018</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078673</v>
+        <v>3.784387403078573</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482112</v>
+        <v>8.89697123148188</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489281</v>
+        <v>14.62045677489242</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477286</v>
+        <v>18.70915102477236</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908269</v>
+        <v>19.72617653908217</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115578</v>
+        <v>19.25713215115528</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875067</v>
+        <v>17.7870783987502</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287746</v>
+        <v>15.21991838287706</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852408</v>
+        <v>10.5374825785238</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381834</v>
+        <v>5.658276933381685</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233921</v>
+        <v>2.193068516233863</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625681</v>
+        <v>0.537685030062554</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564709</v>
+        <v>0.006864064213564528</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019273</v>
+        <v>72.49856320019272</v>
       </c>
       <c r="K13" t="n">
         <v>232.9678061314461</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019269</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,7 +35811,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,7 +35820,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.4633176109911</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>77.62891574917707</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>782.8881772547631</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.8164461252064</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,19 +36759,19 @@
         <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120774</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412326</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>358.329682411316</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>827.1370117794545</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165975</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37008,7 +37008,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>302.9830552060558</v>
+        <v>272.5441252288672</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
